--- a/django_project_pss/media/datos_entidades.xlsx
+++ b/django_project_pss/media/datos_entidades.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naguie\OneDrive - Consejo Superior de la Judicatura\RAMA JUDICIAL\Aplicativo Seguridad Social\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naguie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_58D71E6630CDE0943FFC9119BE7F6DF70EDA2F66" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{84BED5ED-075E-43F4-BE79-CD88E14E632E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11815EBA-34F4-4690-8C03-54226178BBFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos Entidades" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'datos Entidades'!$A$1:$A$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'datos Entidades'!$A$1:$A$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="88">
   <si>
     <t>NIT</t>
   </si>
@@ -63,9 +63,6 @@
     <t>A010102001</t>
   </si>
   <si>
-    <t>CITI COLFONDOS</t>
-  </si>
-  <si>
     <t>contribuciones</t>
   </si>
   <si>
@@ -75,15 +72,6 @@
     <t>PORVENIR</t>
   </si>
   <si>
-    <t>SURA ( SUSALUD)</t>
-  </si>
-  <si>
-    <t>SOS COMFAMILIAR</t>
-  </si>
-  <si>
-    <t>EPS SANITAS</t>
-  </si>
-  <si>
     <t>NUEVA EPS</t>
   </si>
   <si>
@@ -96,24 +84,15 @@
     <t>COMPENSAR</t>
   </si>
   <si>
-    <t>COMFENALCO VALLE EPS</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAMISANAR </t>
   </si>
   <si>
-    <t xml:space="preserve">COOSALUD </t>
-  </si>
-  <si>
     <t>A010102005</t>
   </si>
   <si>
     <t>A010102004</t>
   </si>
   <si>
-    <t>COMFAMILIAR</t>
-  </si>
-  <si>
     <t>A010102006</t>
   </si>
   <si>
@@ -126,12 +105,6 @@
     <t>A010102009</t>
   </si>
   <si>
-    <t>ESCUELAS E INST  MINEDUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSORCIO FISALUD-FOSYGA  </t>
-  </si>
-  <si>
     <t>RIESGOS PROFESIONALES</t>
   </si>
   <si>
@@ -147,9 +120,6 @@
     <t>CAJA DE COMPENSACION FAMILIAR</t>
   </si>
   <si>
-    <t>POSITIVA</t>
-  </si>
-  <si>
     <t>ESAP</t>
   </si>
   <si>
@@ -192,9 +162,6 @@
     <t>MIN001</t>
   </si>
   <si>
-    <t>EPS042</t>
-  </si>
-  <si>
     <t>25-14</t>
   </si>
   <si>
@@ -289,6 +256,42 @@
   </si>
   <si>
     <t>A010202001</t>
+  </si>
+  <si>
+    <t>COLFONDOS</t>
+  </si>
+  <si>
+    <t>POSITIVA COMPAÑIA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>COMFAMILIAR RISARALDA</t>
+  </si>
+  <si>
+    <t>COMFENALCO VALLE</t>
+  </si>
+  <si>
+    <t>COOSALUD MOVILIDAD</t>
+  </si>
+  <si>
+    <t>EPS SURA (ANTES SUSALUD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOSYGA  </t>
+  </si>
+  <si>
+    <t>S.O.S. SERVICIO OCCIDENTAL DE SALUD S.A.</t>
+  </si>
+  <si>
+    <t>SANITAS</t>
+  </si>
+  <si>
+    <t>ESCUELA DE ADMINISTRACION PUBLICA</t>
+  </si>
+  <si>
+    <t>INSTITUTO COLOMBIANO DE BIENESTAR FAMILIAR</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE EDUCACION</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,225 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -374,6 +595,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03A52D7A-920D-466D-B3F0-D1D11F5586E6}" name="Tabla1" displayName="Tabla1" ref="A1:J27" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:J27" xr:uid="{7E14A0BE-40E9-4A55-91F6-37A47E2DE503}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="899999034"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{CF978527-F7BA-4B9B-B8AD-1274DEA2A744}" name="NIT" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{0E67C83E-2715-4004-9CF0-E0E1E86AC6AE}" name="codigo" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{915A7CCD-F921-4E1C-ACD7-F26931D4BA7C}" name="idTipoGasto" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D8E626CF-42C3-4F41-93A0-524A9EEA5F22}" name="concepto" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{3D4FAFEF-18EC-41F2-BF31-3046A91B9B25}" name="razonEntidad" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9E09FEED-97DC-4011-8072-97915BD69386}" name="rubroPermanente" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5F925F29-CA5F-48BD-A949-62C8EA11636D}" name="rubroTemporal" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{54A37354-64CE-4AC8-970A-45D26A86742C}" name="tipoCuentaPagar" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{45470127-6737-421F-BA9D-05ACC650B491}" name="codigoDescuento" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{8C3B5071-35FA-4655-A501-F151EE8A4C20}" name="tipo" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,8 +896,10 @@
     <col min="1" max="1" width="21.85546875" style="2"/>
     <col min="2" max="2" width="21.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
-    <col min="4" max="8" width="21.85546875" style="2"/>
-    <col min="9" max="9" width="21.85546875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="21.85546875" style="2"/>
+    <col min="6" max="6" width="22.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.85546875" style="2"/>
+    <col min="9" max="9" width="22.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="43.85546875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="21.85546875" style="2"/>
   </cols>
@@ -661,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -673,33 +921,33 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>800088702</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -708,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2">
         <v>73</v>
@@ -717,21 +965,21 @@
         <v>23001010102</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>805001157</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -740,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2">
         <v>73</v>
@@ -749,18 +997,18 @@
         <v>23001010102</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>800130907</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -772,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2">
         <v>73</v>
@@ -781,21 +1029,21 @@
         <v>23001010102</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>800251440</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -804,7 +1052,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2">
         <v>73</v>
@@ -813,21 +1061,21 @@
         <v>23001010102</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>900156264</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -836,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2">
         <v>73</v>
@@ -845,21 +1093,21 @@
         <v>23001010102</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>809008362</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -868,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2">
         <v>73</v>
@@ -877,21 +1125,21 @@
         <v>23001010102</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>900935126</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -900,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2">
         <v>73</v>
@@ -909,21 +1157,21 @@
         <v>23001010102</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>860066942</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -932,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2">
         <v>73</v>
@@ -941,21 +1189,21 @@
         <v>23001010102</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>890303093</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -964,7 +1212,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2">
         <v>73</v>
@@ -973,21 +1221,21 @@
         <v>23001010102</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>830003564</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -996,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2">
         <v>73</v>
@@ -1005,21 +1253,21 @@
         <v>23001010102</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>901037916</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>6</v>
@@ -1028,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2">
         <v>73</v>
@@ -1037,21 +1285,21 @@
         <v>23001010102</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>900226715</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
@@ -1060,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2">
         <v>73</v>
@@ -1069,53 +1317,53 @@
         <v>23001010102</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>900226715</v>
+        <v>900336004</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="2">
+        <v>74</v>
+      </c>
+      <c r="I14" s="2">
+        <v>23001010201</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>800229739</v>
+      </c>
+      <c r="B15" s="5">
+        <v>230201</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="2">
-        <v>73</v>
-      </c>
-      <c r="I14" s="2">
-        <v>23001010102</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>900336004</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
@@ -1124,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H15" s="2">
         <v>74</v>
@@ -1133,21 +1381,21 @@
         <v>23001010201</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>800229739</v>
+        <v>800227940</v>
       </c>
       <c r="B16" s="5">
-        <v>230201</v>
+        <v>231001</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -1156,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2">
         <v>74</v>
@@ -1165,21 +1413,21 @@
         <v>23001010201</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>800227940</v>
+        <v>800224808</v>
       </c>
       <c r="B17" s="5">
-        <v>231001</v>
+        <v>230301</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
@@ -1188,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2">
         <v>74</v>
@@ -1197,245 +1445,245 @@
         <v>23001010201</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>800224808</v>
-      </c>
-      <c r="B18" s="5">
-        <v>230301</v>
+        <v>860011153</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2">
+        <v>89</v>
+      </c>
+      <c r="I18" s="2">
+        <v>23001010301</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>891480000</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="2">
+        <v>75</v>
+      </c>
+      <c r="I19" s="2">
+        <v>23001010401</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>899999239</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="2">
-        <v>74</v>
-      </c>
-      <c r="I18" s="2">
-        <v>23001010201</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>860011153</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="2">
-        <v>89</v>
-      </c>
-      <c r="I19" s="2">
-        <v>23001010301</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>891480000</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" s="2">
+        <v>230010108</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" s="2">
-        <v>23001010401</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>899999239</v>
+        <v>899999034</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="2">
+        <v>77</v>
+      </c>
+      <c r="I21" s="2">
+        <v>230010105</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>899999054</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2">
+        <v>72</v>
+      </c>
+      <c r="I22" s="2">
+        <v>230010106</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>899999001</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="2">
+        <v>90</v>
+      </c>
+      <c r="I23" s="2">
+        <v>230010107</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>901097473</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="2">
-        <v>76</v>
-      </c>
-      <c r="I21" s="2">
-        <v>230010108</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>899999034</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="H24" s="2">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2">
+        <v>23001010102</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>805000427</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="2">
-        <v>77</v>
-      </c>
-      <c r="I22" s="2">
-        <v>230010105</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>899999054</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="2">
-        <v>72</v>
-      </c>
-      <c r="I23" s="2">
-        <v>230010106</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>899999001</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="2">
-        <v>90</v>
-      </c>
-      <c r="I24" s="2">
-        <v>230010107</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>901097473</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>6</v>
@@ -1444,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H25" s="2">
         <v>73</v>
@@ -1453,21 +1701,21 @@
         <v>23001010102</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>805000427</v>
+        <v>814000337</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>6</v>
@@ -1476,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H26" s="2">
         <v>73</v>
@@ -1485,21 +1733,21 @@
         <v>23001010102</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>814000337</v>
+        <v>800140949</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>6</v>
@@ -1508,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H27" s="2">
         <v>73</v>
@@ -1517,43 +1765,14 @@
         <v>23001010102</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>800140949</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="2">
-        <v>73</v>
-      </c>
-      <c r="I28" s="2">
-        <v>23001010102</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/django_project_pss/media/datos_entidades.xlsx
+++ b/django_project_pss/media/datos_entidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naguie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11815EBA-34F4-4690-8C03-54226178BBFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F6B0B-0F37-4476-A7E5-09B93C2C9B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,42 +367,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -584,6 +548,42 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -598,25 +598,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03A52D7A-920D-466D-B3F0-D1D11F5586E6}" name="Tabla1" displayName="Tabla1" ref="A1:J27" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:J27" xr:uid="{7E14A0BE-40E9-4A55-91F6-37A47E2DE503}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="899999034"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03A52D7A-920D-466D-B3F0-D1D11F5586E6}" name="Tabla1" displayName="Tabla1" ref="A1:J27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J27" xr:uid="{7E14A0BE-40E9-4A55-91F6-37A47E2DE503}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CF978527-F7BA-4B9B-B8AD-1274DEA2A744}" name="NIT" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{0E67C83E-2715-4004-9CF0-E0E1E86AC6AE}" name="codigo" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{915A7CCD-F921-4E1C-ACD7-F26931D4BA7C}" name="idTipoGasto" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D8E626CF-42C3-4F41-93A0-524A9EEA5F22}" name="concepto" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{3D4FAFEF-18EC-41F2-BF31-3046A91B9B25}" name="razonEntidad" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{9E09FEED-97DC-4011-8072-97915BD69386}" name="rubroPermanente" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{5F925F29-CA5F-48BD-A949-62C8EA11636D}" name="rubroTemporal" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{54A37354-64CE-4AC8-970A-45D26A86742C}" name="tipoCuentaPagar" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{45470127-6737-421F-BA9D-05ACC650B491}" name="codigoDescuento" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{8C3B5071-35FA-4655-A501-F151EE8A4C20}" name="tipo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CF978527-F7BA-4B9B-B8AD-1274DEA2A744}" name="NIT" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0E67C83E-2715-4004-9CF0-E0E1E86AC6AE}" name="codigo" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{915A7CCD-F921-4E1C-ACD7-F26931D4BA7C}" name="idTipoGasto" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D8E626CF-42C3-4F41-93A0-524A9EEA5F22}" name="concepto" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3D4FAFEF-18EC-41F2-BF31-3046A91B9B25}" name="razonEntidad" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9E09FEED-97DC-4011-8072-97915BD69386}" name="rubroPermanente" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5F925F29-CA5F-48BD-A949-62C8EA11636D}" name="rubroTemporal" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{54A37354-64CE-4AC8-970A-45D26A86742C}" name="tipoCuentaPagar" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{45470127-6737-421F-BA9D-05ACC650B491}" name="codigoDescuento" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{8C3B5071-35FA-4655-A501-F151EE8A4C20}" name="tipo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -936,7 +930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>800088702</v>
       </c>
@@ -968,7 +962,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>805001157</v>
       </c>
@@ -1000,7 +994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>800130907</v>
       </c>
@@ -1032,7 +1026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>800251440</v>
       </c>
@@ -1064,7 +1058,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>900156264</v>
       </c>
@@ -1096,7 +1090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>809008362</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>900935126</v>
       </c>
@@ -1160,7 +1154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>860066942</v>
       </c>
@@ -1192,7 +1186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>890303093</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>830003564</v>
       </c>
@@ -1256,7 +1250,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>901037916</v>
       </c>
@@ -1288,7 +1282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>900226715</v>
       </c>
@@ -1320,7 +1314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>900336004</v>
       </c>
@@ -1352,7 +1346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>800229739</v>
       </c>
@@ -1384,7 +1378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>800227940</v>
       </c>
@@ -1416,7 +1410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>800224808</v>
       </c>
@@ -1448,7 +1442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>860011153</v>
       </c>
@@ -1480,7 +1474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>891480000</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>899999239</v>
       </c>
@@ -1576,7 +1570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>899999054</v>
       </c>
@@ -1608,7 +1602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>899999001</v>
       </c>
@@ -1640,7 +1634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>901097473</v>
       </c>
@@ -1672,7 +1666,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>805000427</v>
       </c>
@@ -1704,7 +1698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>814000337</v>
       </c>
@@ -1736,7 +1730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>800140949</v>
       </c>

--- a/django_project_pss/media/datos_entidades.xlsx
+++ b/django_project_pss/media/datos_entidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naguie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F6B0B-0F37-4476-A7E5-09B93C2C9B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6926E41C-DCDE-41AF-B79A-240DDC7DC550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,7 +882,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1517,10 +1517,10 @@
         <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>21</v>
@@ -1581,10 +1581,10 @@
         <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>23</v>

--- a/django_project_pss/media/datos_entidades.xlsx
+++ b/django_project_pss/media/datos_entidades.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naguie\OneDrive - Consejo Superior de la Judicatura\RAMA JUDICIAL\Aplicativo Seguridad Social\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naguie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_58D71E6630CDE0943FFC9119BE7F6DF70EDA2F66" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{84BED5ED-075E-43F4-BE79-CD88E14E632E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6926E41C-DCDE-41AF-B79A-240DDC7DC550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos Entidades" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'datos Entidades'!$A$1:$A$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'datos Entidades'!$A$1:$A$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="88">
   <si>
     <t>NIT</t>
   </si>
@@ -63,9 +63,6 @@
     <t>A010102001</t>
   </si>
   <si>
-    <t>CITI COLFONDOS</t>
-  </si>
-  <si>
     <t>contribuciones</t>
   </si>
   <si>
@@ -75,15 +72,6 @@
     <t>PORVENIR</t>
   </si>
   <si>
-    <t>SURA ( SUSALUD)</t>
-  </si>
-  <si>
-    <t>SOS COMFAMILIAR</t>
-  </si>
-  <si>
-    <t>EPS SANITAS</t>
-  </si>
-  <si>
     <t>NUEVA EPS</t>
   </si>
   <si>
@@ -96,24 +84,15 @@
     <t>COMPENSAR</t>
   </si>
   <si>
-    <t>COMFENALCO VALLE EPS</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAMISANAR </t>
   </si>
   <si>
-    <t xml:space="preserve">COOSALUD </t>
-  </si>
-  <si>
     <t>A010102005</t>
   </si>
   <si>
     <t>A010102004</t>
   </si>
   <si>
-    <t>COMFAMILIAR</t>
-  </si>
-  <si>
     <t>A010102006</t>
   </si>
   <si>
@@ -126,12 +105,6 @@
     <t>A010102009</t>
   </si>
   <si>
-    <t>ESCUELAS E INST  MINEDUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSORCIO FISALUD-FOSYGA  </t>
-  </si>
-  <si>
     <t>RIESGOS PROFESIONALES</t>
   </si>
   <si>
@@ -147,9 +120,6 @@
     <t>CAJA DE COMPENSACION FAMILIAR</t>
   </si>
   <si>
-    <t>POSITIVA</t>
-  </si>
-  <si>
     <t>ESAP</t>
   </si>
   <si>
@@ -192,9 +162,6 @@
     <t>MIN001</t>
   </si>
   <si>
-    <t>EPS042</t>
-  </si>
-  <si>
     <t>25-14</t>
   </si>
   <si>
@@ -289,6 +256,42 @@
   </si>
   <si>
     <t>A010202001</t>
+  </si>
+  <si>
+    <t>COLFONDOS</t>
+  </si>
+  <si>
+    <t>POSITIVA COMPAÑIA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>COMFAMILIAR RISARALDA</t>
+  </si>
+  <si>
+    <t>COMFENALCO VALLE</t>
+  </si>
+  <si>
+    <t>COOSALUD MOVILIDAD</t>
+  </si>
+  <si>
+    <t>EPS SURA (ANTES SUSALUD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOSYGA  </t>
+  </si>
+  <si>
+    <t>S.O.S. SERVICIO OCCIDENTAL DE SALUD S.A.</t>
+  </si>
+  <si>
+    <t>SANITAS</t>
+  </si>
+  <si>
+    <t>ESCUELA DE ADMINISTRACION PUBLICA</t>
+  </si>
+  <si>
+    <t>INSTITUTO COLOMBIANO DE BIENESTAR FAMILIAR</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE EDUCACION</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,225 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -374,6 +595,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03A52D7A-920D-466D-B3F0-D1D11F5586E6}" name="Tabla1" displayName="Tabla1" ref="A1:J27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J27" xr:uid="{7E14A0BE-40E9-4A55-91F6-37A47E2DE503}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{CF978527-F7BA-4B9B-B8AD-1274DEA2A744}" name="NIT" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0E67C83E-2715-4004-9CF0-E0E1E86AC6AE}" name="codigo" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{915A7CCD-F921-4E1C-ACD7-F26931D4BA7C}" name="idTipoGasto" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D8E626CF-42C3-4F41-93A0-524A9EEA5F22}" name="concepto" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3D4FAFEF-18EC-41F2-BF31-3046A91B9B25}" name="razonEntidad" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9E09FEED-97DC-4011-8072-97915BD69386}" name="rubroPermanente" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5F925F29-CA5F-48BD-A949-62C8EA11636D}" name="rubroTemporal" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{54A37354-64CE-4AC8-970A-45D26A86742C}" name="tipoCuentaPagar" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{45470127-6737-421F-BA9D-05ACC650B491}" name="codigoDescuento" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{8C3B5071-35FA-4655-A501-F151EE8A4C20}" name="tipo" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,8 +890,10 @@
     <col min="1" max="1" width="21.85546875" style="2"/>
     <col min="2" max="2" width="21.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
-    <col min="4" max="8" width="21.85546875" style="2"/>
-    <col min="9" max="9" width="21.85546875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="21.85546875" style="2"/>
+    <col min="6" max="6" width="22.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.85546875" style="2"/>
+    <col min="9" max="9" width="22.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="43.85546875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="21.85546875" style="2"/>
   </cols>
@@ -661,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -673,19 +915,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -693,13 +935,13 @@
         <v>800088702</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -708,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2">
         <v>73</v>
@@ -717,7 +959,7 @@
         <v>23001010102</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -725,13 +967,13 @@
         <v>805001157</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -740,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2">
         <v>73</v>
@@ -749,7 +991,7 @@
         <v>23001010102</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -757,10 +999,10 @@
         <v>800130907</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -772,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2">
         <v>73</v>
@@ -781,7 +1023,7 @@
         <v>23001010102</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -789,13 +1031,13 @@
         <v>800251440</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -804,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2">
         <v>73</v>
@@ -813,7 +1055,7 @@
         <v>23001010102</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -821,13 +1063,13 @@
         <v>900156264</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -836,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2">
         <v>73</v>
@@ -845,7 +1087,7 @@
         <v>23001010102</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -853,13 +1095,13 @@
         <v>809008362</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -868,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2">
         <v>73</v>
@@ -877,7 +1119,7 @@
         <v>23001010102</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -885,13 +1127,13 @@
         <v>900935126</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -900,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2">
         <v>73</v>
@@ -909,7 +1151,7 @@
         <v>23001010102</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -917,13 +1159,13 @@
         <v>860066942</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -932,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2">
         <v>73</v>
@@ -941,7 +1183,7 @@
         <v>23001010102</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -949,13 +1191,13 @@
         <v>890303093</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -964,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2">
         <v>73</v>
@@ -973,7 +1215,7 @@
         <v>23001010102</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -981,13 +1223,13 @@
         <v>830003564</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -996,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2">
         <v>73</v>
@@ -1005,7 +1247,7 @@
         <v>23001010102</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1013,13 +1255,13 @@
         <v>901037916</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>6</v>
@@ -1028,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2">
         <v>73</v>
@@ -1037,7 +1279,7 @@
         <v>23001010102</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1045,13 +1287,13 @@
         <v>900226715</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
@@ -1060,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2">
         <v>73</v>
@@ -1069,53 +1311,53 @@
         <v>23001010102</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>900226715</v>
+        <v>900336004</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="2">
+        <v>74</v>
+      </c>
+      <c r="I14" s="2">
+        <v>23001010201</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="2">
-        <v>73</v>
-      </c>
-      <c r="I14" s="2">
-        <v>23001010102</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>900336004</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>800229739</v>
+      </c>
+      <c r="B15" s="5">
+        <v>230201</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
@@ -1124,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H15" s="2">
         <v>74</v>
@@ -1133,21 +1375,21 @@
         <v>23001010201</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>800229739</v>
+        <v>800227940</v>
       </c>
       <c r="B16" s="5">
-        <v>230201</v>
+        <v>231001</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -1156,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2">
         <v>74</v>
@@ -1165,21 +1407,21 @@
         <v>23001010201</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>800227940</v>
+        <v>800224808</v>
       </c>
       <c r="B17" s="5">
-        <v>231001</v>
+        <v>230301</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
@@ -1188,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2">
         <v>74</v>
@@ -1197,245 +1439,245 @@
         <v>23001010201</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>800224808</v>
-      </c>
-      <c r="B18" s="5">
-        <v>230301</v>
+        <v>860011153</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I18" s="2">
-        <v>23001010201</v>
+        <v>23001010301</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>860011153</v>
+        <v>891480000</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H19" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I19" s="2">
-        <v>23001010301</v>
+        <v>23001010401</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>891480000</v>
+        <v>899999239</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" s="2">
+        <v>230010108</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" s="2">
-        <v>23001010401</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>899999239</v>
+        <v>899999034</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" s="2">
-        <v>230010108</v>
+        <v>230010105</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>899999034</v>
+        <v>899999054</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H22" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I22" s="2">
-        <v>230010105</v>
+        <v>230010106</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>899999054</v>
+        <v>899999001</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H23" s="2">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I23" s="2">
-        <v>230010106</v>
+        <v>230010107</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>899999001</v>
+        <v>901097473</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="H24" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I24" s="2">
-        <v>230010107</v>
+        <v>23001010102</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>901097473</v>
+        <v>805000427</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>69</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>6</v>
@@ -1444,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H25" s="2">
         <v>73</v>
@@ -1453,21 +1695,21 @@
         <v>23001010102</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>805000427</v>
+        <v>814000337</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>6</v>
@@ -1476,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H26" s="2">
         <v>73</v>
@@ -1485,21 +1727,21 @@
         <v>23001010102</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>814000337</v>
+        <v>800140949</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>6</v>
@@ -1508,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H27" s="2">
         <v>73</v>
@@ -1517,43 +1759,14 @@
         <v>23001010102</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>800140949</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="2">
-        <v>73</v>
-      </c>
-      <c r="I28" s="2">
-        <v>23001010102</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>